--- a/biology/Médecine/Pierre_Morel_(résistant)/Pierre_Morel_(résistant).xlsx
+++ b/biology/Médecine/Pierre_Morel_(résistant)/Pierre_Morel_(résistant).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pierre_Morel_(r%C3%A9sistant)</t>
+          <t>Pierre_Morel_(résistant)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Morel, né le 13 avril 1923 à Saint-Aubin-du-Cormier (Ille-et-Vilaine) et mort le 28 décembre 2020 à Paris (quinzième arrondissement) , à l’âge de 97 ans, est un chirurgien-dentiste de profession connu comme espion et résistant français. 
 Pendant la Seconde Guerre mondiale, Pierre Morel s'engage très tôt dans la résistance, et travaille durant le second semestre 1943 au sein d'un réseau action du SOE, le réseau Oscar-Parson de François Vallée. En décembre 2004, il est élu président du Comité d'action de la Résistance.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pierre_Morel_(r%C3%A9sistant)</t>
+          <t>Pierre_Morel_(résistant)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Identités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'État-civil, son nom est Pierre Morel.
 Lorsqu'il est membre du réseau Parson, le commissaire de police Louradour lui fournit des faux papiers d’identité, au nom de Pierre Morvan.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pierre_Morel_(r%C3%A9sistant)</t>
+          <t>Pierre_Morel_(résistant)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père est Louis Marie Morel, chargé de mission 3e classe, S/Lt ; déporté ; chevalier de la légion d'honneur à titre posthume ; médaille de la Résistance française ; Croix de guerre.
 Sa mère est Alice Céline née Dufeu, chargée de mission 3e classe : S/Lt ; internée ; citée à l'ordre de la division ; décédée, aveugle, à l'INI.
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pierre_Morel_(r%C3%A9sistant)</t>
+          <t>Pierre_Morel_(résistant)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,12 +599,52 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse
-Il fait ses études au lycée de Rennes jusqu’en 1939.
-Résistance
-1939. Son père est nommé chef d’atelier des réparations de l’armée de l’air à Clermont-Ferrand. C’est dans cette ville qu’à la rentrée d’octobre, Pierre Morel entre au lycée Blaise-Pascal.
+          <t>Jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fait ses études au lycée de Rennes jusqu’en 1939.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pierre_Morel_(résistant)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Morel_(r%C3%A9sistant)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Éléments biographiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Résistance</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1939. Son père est nommé chef d’atelier des réparations de l’armée de l’air à Clermont-Ferrand. C’est dans cette ville qu’à la rentrée d’octobre, Pierre Morel entre au lycée Blaise-Pascal.
 1941. Premiers contacts avec la résistance à Clermont-Ferrand : il est recruté par un camarade de lycée, Marc Tertière, qui travaille pour deux professeurs : Jean-Michel Flandin, professeur de lettres, et Saintenac, professeur de philosophie. Ils dessinent des « V » et des croix de Lorraine, puis font des tracts qu’ils distribuent dans les boîtes aux lettres. Repéré par les services de Vichy, en novembre, il retourne en Bretagne au lycée de Rennes. Il entre en contact avec un groupe de camarades qui ont formé un groupe de résistants : il est recruté par un camarade de lycée devenu étudiant en droit, Bernard Dubois, et il intègre ainsi un groupe dirigé par Robert Tiercery « Fred », dont la tâche consiste à collecter des renseignements militaires et à les transmettre à Paul Moysan de Brest, à former des groupes et rechercher des terrains de parachutage. Ce groupe est en contact avec Madame Prod'homme, dite « Herminie », à Rennes, qui lui donne une aide importante, notamment financière. Il prend contact avec Joël Le Tac, chef du réseau OVERCLOUD, et se range sous ses ordres.
-1942. En février, Joël Le Tac est arrêté : le réseau est désorganisé par les arrestations. En juin, Pierre Morel obtient le bac de philosophie. Pour démarrer des études de médecine, il s'inscrit en PCB[1], mais il ne s'agit que d'une couverture pour ses activités de résistant.
+1942. En février, Joël Le Tac est arrêté : le réseau est désorganisé par les arrestations. En juin, Pierre Morel obtient le bac de philosophie. Pour démarrer des études de médecine, il s'inscrit en PCB, mais il ne s'agit que d'une couverture pour ses activités de résistant.
 1943. Au début de l'année, grâce à Paul Moysan, une liaison est établie avec le réseau de renseignements MARATHON-Chinchilla d'Yves Mindren. 
 En mai, il réside à Hédé. 
 En juin se produisent l'arrestation d'Yves Mindren, et l'arrivée de François Vallée « Oscar », envoyé par le SOE pour former le réseau action PARSON en Bretagne. Le groupe entre en contact avec François Vallée par l’intermédiaire de Léopold Lauraine et de René Ballard. Pierre Morel prend en main le groupe Tiercery, qui, outre la recherche d’information, organise des groupes paramilitaires, repère et prépare des terrains de parachutage en Ille-et-Vilaine.
@@ -597,53 +653,125 @@
 En décembre, le réseau Oscar-PARSON est démantelé par plusieurs arrestations. François Vallée réussit à s'échapper et à se rendre à Paris, d'où il donne l'ordre à ses lieutenants de partir pour l'Angleterre. Dans la nuit du 23 au 24, Pierre Morel tente un départ par mer depuis la baie de Fresnaie, à Saint-Cast, qui échoue.
 1944. En janvier, une nouvelle tentative est prévue, mais le 13, l'organisation est découverte et Pierre Morel échappe de peu à la Gestapo. Il reçoit de François Vallée l'ordre de gagner Paris pour prendre contact avec un réseau d'évasion par l'Espagne, le réseau Pernod.
 Le 2 février, accompagné de quatre aviateurs américains, il gagne Lannemezan, échappe de justesse à la Gestapo, gagne Tarbes, puis Bagnères-de-Bigorre.
-En mars, une première tentative de franchir les Pyrénées est infructueuse : partant de Tarbes, il passe à Bagnères-de-Bigorre (hôtel des Américains), Sainte-Marie-de-Campan, Caderolles, Camparan[2], La Houle, avant de devoir repartir en arrière en voyant des Allemands se diriger vers eux depuis la frontière. Pierre Morel rentre à Tarbes avec un pied noir, qui commence à geler, car il s'enfonçait dans la neige jusqu'à la ceinture. De retour à Paris, Pierre Morel est envoyé à Lannion pour organiser un réseau d’évasion par mer entre les ponts de Biht et de Begleber. La Gestapo de nouveau sur ses traces, il sauve les convoyeurs et agents du réseau Pernod, en particulier deux sœurs résistantes de Gap qu’il ramène à Paris.
+En mars, une première tentative de franchir les Pyrénées est infructueuse : partant de Tarbes, il passe à Bagnères-de-Bigorre (hôtel des Américains), Sainte-Marie-de-Campan, Caderolles, Camparan, La Houle, avant de devoir repartir en arrière en voyant des Allemands se diriger vers eux depuis la frontière. Pierre Morel rentre à Tarbes avec un pied noir, qui commence à geler, car il s'enfonçait dans la neige jusqu'à la ceinture. De retour à Paris, Pierre Morel est envoyé à Lannion pour organiser un réseau d’évasion par mer entre les ponts de Biht et de Begleber. La Gestapo de nouveau sur ses traces, il sauve les convoyeurs et agents du réseau Pernod, en particulier deux sœurs résistantes de Gap qu’il ramène à Paris.
 En mai, avec trois amis, il organise un nouveau départ : Toulouse, Pamiers, Verniolle (où il prend contact avec un guide espagnol et entreprend la marche à pied), Saint-Paul-de-Jarrat, Mercus, Tarascon-sur-Ariège, Vicdessos, pique d'Endron. Le 23, il passe la frontière d'Andorre à 2879 mètres d'altitude, marchant pieds nus depuis 24 heures. Il descend vers Ordino. Le 25, il passe de la frontière espagnole à La Farga, où le groupe est arrêté par les carabinieros. Il est en liberté surveillée pendant une semaine à Seo-de-Urgel.
 En juin, il est emprisonné successivement à Lérida, Saragosse et Miranda de Ebro.
 Le 1er juillet, il est libéré, passe une semaine à Madrid et arrive à Gibraltar le 8. Il part à Londres par avion le 10, et arrive à Londres le 11, où il fait son rapport, puis est envoyé à l’entraînement (Ruislip, Ringway). Il est ensuite transféré au BCRA.
-Le 10 octobre, Pierre Morel est muté à la DGER[3].
+Le 10 octobre, Pierre Morel est muté à la DGER.
 En novembre, au milieu du mois, il fait la campagne d’Alsace.
 1945. En janvier, il est sur le front de l’Atlantique. Il est démobilisé le 7 août.
-Après la guerre
-1945. Après sa démobilisation, il reprend ses études d'odontologie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pierre_Morel_(résistant)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Morel_(r%C3%A9sistant)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Éléments biographiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Après la guerre</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1945. Après sa démobilisation, il reprend ses études d'odontologie.
 1948. Il obtient le diplôme de chirurgien-dentiste à la faculté de médecine de Paris (10 juillet 1948). Il est officier liquidateur du réseau Oscar-PARSON.
 1987. Il prend sa retraite le 1er juin.
 2004. En décembre, il devient président du Comité d'action de la Résistance.
 2005. Le 6 décembre, Pierre Morel succède à Jacques Poirier à la présidence de Libre Résistance, association des anciens de la section F du SOE, fonction qu'il assume jusqu'à fin 2009.
-2020. Pierre Morel décède le 28 décembre à Paris, à l’âge de 97 ans[4]
+2020. Pierre Morel décède le 28 décembre à Paris, à l’âge de 97 ans
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Pierre_Morel_(r%C3%A9sistant)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pierre_Morel_(r%C3%A9sistant)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pierre_Morel_(résistant)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Morel_(r%C3%A9sistant)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Distinctions et honneurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Pierre Morel a reçu les décorations suivantes :
-Décorations nationales
- Grand officier de la Légion d'honneur (décret du 12 juillet 2017)[5]
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Morel a reçu les décorations suivantes :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pierre_Morel_(résistant)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Morel_(r%C3%A9sistant)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Distinctions et honneurs</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Décorations nationales</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Grand officier de la Légion d'honneur (décret du 12 juillet 2017)
  Commandeur de la Légion d'honneur (décret du 19 avril 1984, JO du 5 septembre 1984)
  Officier de la Légion d'honneur (décret du 1er février 1962, JO du 11 février 1962)
  Chevalier de la Légion d'honneur (décret du 12 octobre 1946, JO du 3 novembre 1946)
@@ -653,12 +781,87 @@
  Croix du combattant volontaire de la Résistance
  Croix du combattant
  Croix du combattant volontaire de la guerre de 1939-1945
- Médaille de reconnaissance de la Nation
-Décorations étrangères
- États-Unis
- Médaille de la Liberté
- Royaume-Uni
- King's Medal for Courage in the Cause of Freedom</t>
+ Médaille de reconnaissance de la Nation</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pierre_Morel_(résistant)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Morel_(r%C3%A9sistant)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Distinctions et honneurs</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Décorations étrangères</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Médaille de la Liberté</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pierre_Morel_(résistant)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Morel_(r%C3%A9sistant)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Distinctions et honneurs</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Décorations étrangères</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Royaume-Uni</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> King's Medal for Courage in the Cause of Freedom</t>
         </is>
       </c>
     </row>
